--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andromeda\eclipse-workspace\november2021\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\march2022\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29785EFC-3525-454D-BF6F-60FD96DE2DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="2715" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="6120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -57,9 +56,6 @@
   </si>
   <si>
     <t>LoginPayload</t>
-  </si>
-  <si>
-    <t>{"email":"jogidemo321@gmail.com","password":"builder123"}</t>
   </si>
   <si>
     <t>IncorrectLoginPayload</t>
@@ -1555,11 +1551,48 @@
               "required": [
                 "id</t>
   </si>
+  <si>
+    <t>{
+  "$schema": "http://json-schema.org/draft-04/schema#",
+  "type": "object",
+  "properties": {
+    "message": {
+      "type": "string"
+    }
+  },
+  "required": [
+    "message"
+  ]
+}</t>
+  </si>
+  <si>
+    <t>DashboardNoTokenSchema</t>
+  </si>
+  <si>
+    <t>DashboardNoParamSchema</t>
+  </si>
+  <si>
+    <t>{
+  "$schema": "http://json-schema.org/draft-04/schema#",
+  "type": "object",
+  "properties": {
+    "status": {
+      "type": "string"
+    }
+  },
+  "required": [
+    "status"
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{"email":"testlabs@gmail.com","password":"builder123"}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1886,7 +1919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1932,15 +1965,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35101D28-9E75-487A-ABEA-E20C3F5E1F01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1963,18 +1996,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +2016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2022,11 +2055,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2048,15 +2081,15 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2065,11 +2098,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2087,26 +2120,42 @@
     </row>
     <row r="2" spans="1:2" ht="409.5">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="409.5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="409.5">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
